--- a/Trabalho/Exercicio3.xlsx
+++ b/Trabalho/Exercicio3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Documents\GitHub\EXERCICIOS\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B6C4BC-3B02-4087-AC22-D9F9A7BCC12B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00943DA8-365E-4D20-99F2-621339460D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="2250" windowWidth="11445" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>salario Bruto</t>
   </si>
@@ -66,7 +66,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,14 +89,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u val="singleAccounting"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -373,75 +365,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -725,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H13"/>
+  <dimension ref="B1:X13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,134 +728,345 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21">
         <v>220</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="25"/>
+      <c r="J2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21">
+        <v>220</v>
+      </c>
+      <c r="N2" s="25"/>
+      <c r="R2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21">
+        <v>220</v>
+      </c>
+      <c r="V2" s="25"/>
     </row>
-    <row r="3" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="26">
+        <v>22</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="J3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="26">
+        <v>16</v>
+      </c>
+      <c r="N3" s="27"/>
+      <c r="R3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="26">
         <v>4.5</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="V3" s="27"/>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="17">
         <f>E2*E3</f>
+        <v>4840</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="J4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="17">
+        <f>M2*M3</f>
+        <v>3520</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="R4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="17">
+        <f>U2*U3</f>
         <v>990</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="V4" s="18"/>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="17">
         <f>IF(E4&gt;5645.81, 621.03, IF( E4&gt;2822.9,  0.11*E4,      IF(  E4&gt;1693.72,   0.09*E4, 0.08*E4    )        )  )</f>
+        <v>532.4</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="J5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="17">
+        <f>IF(M4&gt;5645.81, 621.03, IF( M4&gt;2822.9,  0.11*M4,      IF(  M4&gt;1693.72,   0.09*M4, 0.08*M4    )        )  )</f>
+        <v>387.2</v>
+      </c>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="R5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="17">
+        <f>IF(U4&gt;5645.81, 621.03, IF( U4&gt;2822.9,  0.11*U4,      IF(  U4&gt;1693.72,   0.09*U4, 0.08*U4    )        )  )</f>
         <v>79.2</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22">
         <f>E4-E5</f>
+        <v>4307.6000000000004</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22">
+        <f>M4-M5</f>
+        <v>3132.8</v>
+      </c>
+      <c r="N6" s="21"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="4"/>
+      <c r="R6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="22">
+        <f>U4-U5</f>
         <v>910.8</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="4"/>
     </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
         <f>IF(E6&gt;4664.68,0.275,(IF(E6&gt;3751.05,0.225,IF(E6&gt;2826.65,0.15,IF(E6&gt;1903.98,0.075,0)))))</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="15">
+        <f>E7*E4</f>
+        <v>1089</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="J7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12">
+        <f>IF(M6&gt;4664.68,0.275,(IF(M6&gt;3751.05,0.225,IF(M6&gt;2826.65,0.15,IF(M6&gt;1903.98,0.075,0)))))</f>
+        <v>0.15</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="15">
+        <f>M7*M4</f>
+        <v>528</v>
+      </c>
+      <c r="P7" s="16"/>
+      <c r="R7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12">
+        <f>IF(U6&gt;4664.68,0.275,(IF(U6&gt;3751.05,0.225,IF(U6&gt;2826.65,0.15,IF(U6&gt;1903.98,0.075,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="12">
-        <f>E7*E4</f>
+      <c r="V7" s="12"/>
+      <c r="W7" s="15">
+        <f>U7*U4</f>
         <v>0</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="X7" s="16"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="24">
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8">
         <f>E4*0.08</f>
+        <v>387.2</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="J8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8">
+        <f>M4*0.08</f>
+        <v>281.60000000000002</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="R8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="8">
+        <f>U4*0.08</f>
         <v>79.2</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+    <row r="9" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="25">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="10">
         <f>E4-E5-E7</f>
+        <v>4307.375</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="J10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="10">
+        <f>M4-M5-M7</f>
+        <v>3132.65</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="R10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="10">
+        <f>U4-U5-U7</f>
         <v>910.8</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="V10" s="9"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
+      <c r="P13" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="54">
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
